--- a/Filtered_By_Region/Region VIII/Region VIII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA368"/>
+  <dimension ref="A1:AF368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish)</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>387051.36</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>1063343.04</v>
       </c>
@@ -726,11 +741,6 @@
           <t>5th</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of 1 unit Water Sanitation Facilities 4 Seater</t>
@@ -739,11 +749,6 @@
       <c r="K3" t="n">
         <v>717391.46</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -840,11 +845,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Water and Sanitation Facilities - Four (4) Seater</t>
@@ -853,11 +853,6 @@
       <c r="K4" t="n">
         <v>674177.51</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>670221.45</v>
       </c>
@@ -962,11 +957,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -975,11 +965,6 @@
       <c r="K5" t="n">
         <v>2945620.86</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>2935619.36</v>
       </c>
@@ -1081,11 +1066,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -1094,11 +1074,6 @@
       <c r="K6" t="n">
         <v>336908.87</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>336639.44</v>
       </c>
@@ -1200,11 +1175,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Repair of Water and Sanitation Facilities - 4-Seater</t>
@@ -1213,11 +1183,6 @@
       <c r="K7" t="n">
         <v>398282.76</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>398109.53</v>
       </c>
@@ -1319,11 +1284,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -1332,11 +1292,6 @@
       <c r="K8" t="n">
         <v>389754.19</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>389498.44</v>
       </c>
@@ -1441,11 +1396,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1454,11 +1404,6 @@
       <c r="K9" t="n">
         <v>3001465.5</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>2980621.64</v>
       </c>
@@ -1563,11 +1508,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1576,11 +1516,6 @@
       <c r="K10" t="n">
         <v>3001465.5</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>2685885.58</v>
       </c>
@@ -1685,11 +1620,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1698,11 +1628,6 @@
       <c r="K11" t="n">
         <v>3001465.5</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>2985944.27</v>
       </c>
@@ -1807,11 +1732,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -1820,11 +1740,6 @@
       <c r="K12" t="n">
         <v>236887.87</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M12" t="n">
         <v>231835.72</v>
       </c>
@@ -1919,11 +1834,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Construction of Water and Sanitation Facilities - Four (4) Seater</t>
@@ -1932,11 +1842,6 @@
       <c r="K13" t="n">
         <v>588278.0600000001</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M13" t="n">
         <v>586845.33</v>
       </c>
@@ -2034,11 +1939,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -2047,11 +1947,6 @@
       <c r="K14" t="n">
         <v>335893.89</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>324120.6</v>
       </c>
@@ -2148,11 +2043,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Construction of Toilets</t>
@@ -2161,11 +2051,6 @@
       <c r="K15" t="n">
         <v>637216.59</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>619715.76</v>
       </c>
@@ -2262,11 +2147,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -2275,11 +2155,6 @@
       <c r="K16" t="n">
         <v>2828127.22</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M16" t="n">
         <v>2394306.16</v>
       </c>
@@ -2379,11 +2254,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Construction of 1 units Water Sanitation Facilities - 4-Seater</t>
@@ -2392,11 +2262,6 @@
       <c r="K17" t="n">
         <v>717391.46</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M17" t="n">
         <v>717164.64</v>
       </c>
@@ -2501,11 +2366,6 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish</t>
@@ -2514,11 +2374,6 @@
       <c r="K18" t="n">
         <v>337875.84</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M18" t="n">
         <v>328652.75</v>
       </c>
@@ -2588,11 +2443,6 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -2601,11 +2451,6 @@
       <c r="K19" t="n">
         <v>359000</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>356514.34</v>
       </c>
@@ -2710,11 +2555,6 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Repair of 2-Seater CR</t>
@@ -2723,11 +2563,6 @@
       <c r="K20" t="n">
         <v>281354.26</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M20" t="n">
         <v>279808.19</v>
       </c>
@@ -2827,11 +2662,6 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -2840,11 +2670,6 @@
       <c r="K21" t="n">
         <v>3100687.5</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M21" t="n">
         <v>3054837.71</v>
       </c>
@@ -2944,11 +2769,6 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -2957,11 +2777,6 @@
       <c r="K22" t="n">
         <v>358954.48</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M22" t="n">
         <v>341503.28</v>
       </c>
@@ -3058,11 +2873,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Construction of WATSAN (4-Seater CR)</t>
@@ -3071,11 +2881,6 @@
       <c r="K23" t="n">
         <v>693836.25</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M23" t="n">
         <v>665660.59</v>
       </c>
@@ -3175,11 +2980,6 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -3188,11 +2988,6 @@
       <c r="K24" t="n">
         <v>3100687.5</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M24" t="n">
         <v>3037411.47</v>
       </c>
@@ -3292,11 +3087,6 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -3305,11 +3095,6 @@
       <c r="K25" t="n">
         <v>3100687.5</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M25" t="n">
         <v>3054837.71</v>
       </c>
@@ -3409,11 +3194,6 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -3422,11 +3202,6 @@
       <c r="K26" t="n">
         <v>348552.66</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M26" t="n">
         <v>342044.52</v>
       </c>
@@ -3528,11 +3303,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>Construction of One (1) Unit One (1) Storey School Clinic</t>
@@ -3541,11 +3311,6 @@
       <c r="K27" t="n">
         <v>2858302.25</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M27" t="n">
         <v>2833811.74</v>
       </c>
@@ -28082,7 +27847,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA368" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF368" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VIII/Region VIII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
